--- a/data/melhores_equipes_brasileirao.xlsx
+++ b/data/melhores_equipes_brasileirao.xlsx
@@ -938,7 +938,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>58.9%</t>
+          <t>59.2%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>55.4%</t>
+          <t>55.8%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -1151,12 +1151,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>53.6%</t>
+          <t>53.9%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -1260,12 +1260,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>53.5%</t>
+          <t>53.6%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -1369,12 +1369,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>53.3%</t>
+          <t>53.5%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>

--- a/data/melhores_equipes_brasileirao.xlsx
+++ b/data/melhores_equipes_brasileirao.xlsx
@@ -938,7 +938,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>59.2%</t>
+          <t>59.1%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>55.8%</t>
+          <t>55.1%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -1151,12 +1151,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>53.9%</t>
+          <t>54.4%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -1260,7 +1260,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1369,12 +1369,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>53.5%</t>
+          <t>53.6%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
